--- a/Excel/19 lesson/Семинар 19. Продажи доп отчеты.xlsx
+++ b/Excel/19 lesson/Семинар 19. Продажи доп отчеты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NekitOS\Desktop\мусорка учебная\Excel\19 lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE4D69E-9F91-467B-87C0-A014907DEA0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE2DCC-E9F8-4FBA-A18C-3382AC7528BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" tabRatio="684" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" tabRatio="684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Продажи" sheetId="16" r:id="rId1"/>
@@ -16394,8 +16394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529ACA29-728B-4AD2-984D-6DB5AF769EA9}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16699,7 +16699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A2827D-4CCA-462B-8466-A832E495B079}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
